--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA68045-6E6A-CD47-B73E-4F13A90B7F65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D949A-B6FB-8E42-88A6-2D9B081E7EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>id</t>
   </si>
@@ -49,6 +49,190 @@
   </si>
   <si>
     <t>answerKeyword</t>
+  </si>
+  <si>
+    <t>빅뱅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑소</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤이니</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>방탄</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비원에이포</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1A4 b1a4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIXX</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔시티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCT NCT48 nct nct48</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔플라잉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>씨엔블루</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>세븐틴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아스트로</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>워너원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>틴탑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠블랙</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투피엠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>투에이엠</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위너</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2pm 2PM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2am 2AM</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>WINNER winner</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이콘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iKON</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제국의아이들</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈퍼주니어</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슈주</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>인피니트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>블락비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>갓세븐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비투비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTOB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지오디</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GOD god</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴이스트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신화</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젝스키스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>젝키</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동방신기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유키스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엠아이비</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIB</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -421,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736083A1-B61A-3140-9134-D888C62B6E2E}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -446,6 +630,304 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>39</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>49</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167D949A-B6FB-8E42-88A6-2D9B081E7EE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9470357-F376-234F-B3E9-656FEFC1FBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="28300" windowHeight="16940" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
+    <workbookView xWindow="240" yWindow="540" windowWidth="28300" windowHeight="16940" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -75,10 +75,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>방탄</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>비원에이포</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,10 +83,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>BIXX</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>엔시티</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -233,6 +225,42 @@
   <si>
     <t>MIB</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2GRP1rkE4O0</t>
+  </si>
+  <si>
+    <t>I3dezFzsNss</t>
+  </si>
+  <si>
+    <t>N8VRaGe3Cqs</t>
+  </si>
+  <si>
+    <t>Le0CwBy4SaQ</t>
+  </si>
+  <si>
+    <t>VIXX vixx</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZAzWT8mRoR0</t>
+  </si>
+  <si>
+    <t>방탄소년단</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gdZLi9oWNZg</t>
+  </si>
+  <si>
+    <t>방탄 BTS bts</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sv53BwhUTC0</t>
+  </si>
+  <si>
+    <t>0IpbvXVbBYA</t>
   </si>
 </sst>
 </file>
@@ -608,7 +636,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -634,6 +662,12 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -642,6 +676,12 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
@@ -653,6 +693,12 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4">
+        <v>77</v>
+      </c>
       <c r="D4" t="s">
         <v>8</v>
       </c>
@@ -661,6 +707,12 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>80</v>
+      </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -669,41 +721,68 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6">
+        <v>57</v>
+      </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>55</v>
+      </c>
+      <c r="E7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
       <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -711,7 +790,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -719,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -727,7 +806,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -735,7 +814,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -743,7 +822,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -751,7 +830,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -759,7 +838,7 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -767,10 +846,10 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -778,10 +857,10 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -789,10 +868,10 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -800,10 +879,10 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -811,10 +890,10 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -822,10 +901,10 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -833,7 +912,7 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -841,7 +920,7 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -849,7 +928,7 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -857,10 +936,10 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -868,10 +947,10 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -879,7 +958,7 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -887,7 +966,7 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -895,10 +974,10 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -906,10 +985,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -917,7 +996,7 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -925,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9470357-F376-234F-B3E9-656FEFC1FBA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85A812-B478-F349-90E6-A089A4FDCEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="540" windowWidth="28300" windowHeight="16940" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +261,68 @@
   </si>
   <si>
     <t>0IpbvXVbBYA</t>
+  </si>
+  <si>
+    <t>k2bjShbdb4U</t>
+  </si>
+  <si>
+    <t>anlOHlMn41g</t>
+  </si>
+  <si>
+    <t>_5PELxP8Udg</t>
+  </si>
+  <si>
+    <t>jT1zdCZnEww</t>
+  </si>
+  <si>
+    <t>EVaV7AwqBWg</t>
+  </si>
+  <si>
+    <t>xT4LzAWcmds</t>
+  </si>
+  <si>
+    <t>크래비티</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이라이트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엔하이픈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빅톤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골든차일드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>엑스원</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>더보이즈</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>펜타곤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터엑스</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬엑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>골차</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -633,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736083A1-B61A-3140-9134-D888C62B6E2E}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -789,6 +851,12 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>80</v>
+      </c>
       <c r="D10" t="s">
         <v>15</v>
       </c>
@@ -797,6 +865,12 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11">
+        <v>57</v>
+      </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
@@ -805,6 +879,12 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12">
+        <v>58</v>
+      </c>
       <c r="D12" t="s">
         <v>17</v>
       </c>
@@ -813,6 +893,12 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
       <c r="D13" t="s">
         <v>18</v>
       </c>
@@ -821,6 +907,12 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14">
+        <v>58</v>
+      </c>
       <c r="D14" t="s">
         <v>19</v>
       </c>
@@ -829,6 +921,12 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15">
+        <v>60</v>
+      </c>
       <c r="D15" t="s">
         <v>20</v>
       </c>
@@ -999,12 +1097,106 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:5">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="D33" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C85A812-B478-F349-90E6-A089A4FDCEA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A0ABF-7EF2-B746-981F-FD780D8866CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>id</t>
   </si>
@@ -323,6 +323,39 @@
   <si>
     <t>골차</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bsiv1mo0HTQ</t>
+  </si>
+  <si>
+    <t>cUgReo37ECw</t>
+  </si>
+  <si>
+    <t>hOREkPq1aVQ</t>
+  </si>
+  <si>
+    <t>kRj4toENrnA</t>
+  </si>
+  <si>
+    <t>vecSVX1QYbQ</t>
+  </si>
+  <si>
+    <t>yEw1WGEq5D4</t>
+  </si>
+  <si>
+    <t>r6TwzSGYycM</t>
+  </si>
+  <si>
+    <t>wgmSImDoJNg</t>
+  </si>
+  <si>
+    <t>eISomx-VMow</t>
+  </si>
+  <si>
+    <t>o0WCva5Stk4</t>
+  </si>
+  <si>
+    <t>3q22SInyiX8</t>
   </si>
 </sst>
 </file>
@@ -697,8 +730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736083A1-B61A-3140-9134-D888C62B6E2E}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -935,6 +968,12 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>60</v>
+      </c>
       <c r="D16" t="s">
         <v>21</v>
       </c>
@@ -943,6 +982,12 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17">
+        <v>75</v>
+      </c>
       <c r="D17" t="s">
         <v>22</v>
       </c>
@@ -954,6 +999,12 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>56</v>
+      </c>
       <c r="D18" t="s">
         <v>23</v>
       </c>
@@ -965,6 +1016,12 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>50</v>
+      </c>
       <c r="D19" t="s">
         <v>24</v>
       </c>
@@ -976,6 +1033,12 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
@@ -987,6 +1050,12 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21">
+        <v>40</v>
+      </c>
       <c r="D21" t="s">
         <v>30</v>
       </c>
@@ -998,6 +1067,12 @@
       <c r="A22">
         <v>21</v>
       </c>
+      <c r="B22" t="s">
+        <v>83</v>
+      </c>
+      <c r="C22">
+        <v>144</v>
+      </c>
       <c r="D22" t="s">
         <v>32</v>
       </c>
@@ -1009,6 +1084,12 @@
       <c r="A23">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>53</v>
+      </c>
       <c r="D23" t="s">
         <v>34</v>
       </c>
@@ -1017,6 +1098,12 @@
       <c r="A24">
         <v>23</v>
       </c>
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
       <c r="D24" t="s">
         <v>36</v>
       </c>
@@ -1025,6 +1112,12 @@
       <c r="A25">
         <v>24</v>
       </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" t="s">
         <v>35</v>
       </c>
@@ -1032,6 +1125,12 @@
     <row r="26" spans="1:5">
       <c r="A26">
         <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26">
+        <v>8</v>
       </c>
       <c r="D26" t="s">
         <v>37</v>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6A0ABF-7EF2-B746-981F-FD780D8866CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB4A2-2F27-3047-A5B9-898D22CAC7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t>id</t>
   </si>
@@ -356,6 +356,15 @@
   </si>
   <si>
     <t>3q22SInyiX8</t>
+  </si>
+  <si>
+    <t>wgzcssEPtX4</t>
+  </si>
+  <si>
+    <t>gyXy0m-4bvE</t>
+  </si>
+  <si>
+    <t>xKw0rm5vZnA</t>
   </si>
 </sst>
 </file>
@@ -731,7 +740,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1143,6 +1152,12 @@
       <c r="A27">
         <v>26</v>
       </c>
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>60</v>
+      </c>
       <c r="D27" t="s">
         <v>39</v>
       </c>
@@ -1154,6 +1169,12 @@
       <c r="A28">
         <v>27</v>
       </c>
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28">
+        <v>42</v>
+      </c>
       <c r="D28" t="s">
         <v>41</v>
       </c>
@@ -1161,6 +1182,12 @@
     <row r="29" spans="1:5">
       <c r="A29">
         <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29">
+        <v>90</v>
       </c>
       <c r="D29" t="s">
         <v>42</v>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB4A2-2F27-3047-A5B9-898D22CAC7AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCB7F3-946A-E445-AA18-C35855CDE1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t>id</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>xKw0rm5vZnA</t>
+  </si>
+  <si>
+    <t>4v4PFanJj_U</t>
   </si>
 </sst>
 </file>
@@ -416,11 +419,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +746,7 @@
   <dimension ref="A1:E44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1197,6 +1203,12 @@
       <c r="A30">
         <v>29</v>
       </c>
+      <c r="B30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
       <c r="D30" t="s">
         <v>43</v>
       </c>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BCB7F3-946A-E445-AA18-C35855CDE1F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FAE21-8047-AD44-9A92-7B791AA33426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -368,6 +368,43 @@
   </si>
   <si>
     <t>4v4PFanJj_U</t>
+  </si>
+  <si>
+    <t>0j2yMFtlPio</t>
+  </si>
+  <si>
+    <t>dWVd84BpaUk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xmN6RpmIJfw</t>
+  </si>
+  <si>
+    <t>kIckv3cC58Q</t>
+  </si>
+  <si>
+    <t>1kcwvcbO8MI</t>
+  </si>
+  <si>
+    <t>nQ6wLuYvGd4</t>
+  </si>
+  <si>
+    <t>PMLPefdwM00</t>
+  </si>
+  <si>
+    <t>UjkNOC9h3_g</t>
+  </si>
+  <si>
+    <t>LlQEKB2H7z4</t>
+  </si>
+  <si>
+    <t>c_e-IC0VwZM</t>
+  </si>
+  <si>
+    <t>W7ZIz4w9Edo</t>
+  </si>
+  <si>
+    <t>p2JzPlpA1Iw</t>
   </si>
 </sst>
 </file>
@@ -745,8 +782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736083A1-B61A-3140-9134-D888C62B6E2E}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1220,6 +1257,12 @@
       <c r="A31">
         <v>30</v>
       </c>
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31">
+        <v>130</v>
+      </c>
       <c r="D31" t="s">
         <v>47</v>
       </c>
@@ -1231,6 +1274,12 @@
       <c r="A32">
         <v>31</v>
       </c>
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32">
+        <v>36</v>
+      </c>
       <c r="D32" t="s">
         <v>45</v>
       </c>
@@ -1239,6 +1288,12 @@
       <c r="A33">
         <v>32</v>
       </c>
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33">
+        <v>10</v>
+      </c>
       <c r="D33" t="s">
         <v>46</v>
       </c>
@@ -1247,6 +1302,12 @@
       <c r="A34">
         <v>33</v>
       </c>
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34">
+        <v>59</v>
+      </c>
       <c r="D34" t="s">
         <v>66</v>
       </c>
@@ -1255,6 +1316,12 @@
       <c r="A35">
         <v>34</v>
       </c>
+      <c r="B35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35">
+        <v>64</v>
+      </c>
       <c r="D35" t="s">
         <v>67</v>
       </c>
@@ -1263,6 +1330,12 @@
       <c r="A36">
         <v>35</v>
       </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36">
+        <v>55</v>
+      </c>
       <c r="D36" t="s">
         <v>68</v>
       </c>
@@ -1271,6 +1344,12 @@
       <c r="A37">
         <v>36</v>
       </c>
+      <c r="B37" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37">
+        <v>78</v>
+      </c>
       <c r="D37" t="s">
         <v>69</v>
       </c>
@@ -1279,6 +1358,12 @@
       <c r="A38">
         <v>37</v>
       </c>
+      <c r="B38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C38">
+        <v>58</v>
+      </c>
       <c r="D38" t="s">
         <v>41</v>
       </c>
@@ -1287,6 +1372,12 @@
       <c r="A39">
         <v>38</v>
       </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39">
+        <v>60</v>
+      </c>
       <c r="D39" t="s">
         <v>70</v>
       </c>
@@ -1298,6 +1389,12 @@
       <c r="A40">
         <v>39</v>
       </c>
+      <c r="B40" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40">
+        <v>72</v>
+      </c>
       <c r="D40" t="s">
         <v>71</v>
       </c>
@@ -1306,6 +1403,12 @@
       <c r="A41">
         <v>40</v>
       </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41">
+        <v>104</v>
+      </c>
       <c r="D41" t="s">
         <v>19</v>
       </c>
@@ -1314,6 +1417,12 @@
       <c r="A42">
         <v>41</v>
       </c>
+      <c r="B42" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42">
+        <v>60</v>
+      </c>
       <c r="D42" t="s">
         <v>72</v>
       </c>
@@ -1322,6 +1431,12 @@
       <c r="A43">
         <v>42</v>
       </c>
+      <c r="B43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43">
+        <v>61</v>
+      </c>
       <c r="D43" t="s">
         <v>73</v>
       </c>
@@ -1329,6 +1444,12 @@
     <row r="44" spans="1:5">
       <c r="A44">
         <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44">
+        <v>40</v>
       </c>
       <c r="D44" t="s">
         <v>74</v>

--- a/Questions/boyIdol.xlsx
+++ b/Questions/boyIdol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jun/My Works/Rails/speedQuizRails/Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C6FAE21-8047-AD44-9A92-7B791AA33426}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A3EABA-842E-6B44-A71E-0553CE06ED46}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
+    <workbookView xWindow="28800" yWindow="3140" windowWidth="19200" windowHeight="14860" xr2:uid="{B7182C66-C5DA-C947-81EE-F464D3AABB1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -780,10 +780,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{736083A1-B61A-3140-9134-D888C62B6E2E}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -1404,13 +1404,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="C41">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1418,13 +1418,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1432,34 +1432,21 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>103</v>
-      </c>
-      <c r="C44">
-        <v>40</v>
-      </c>
-      <c r="D44" t="s">
         <v>74</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E43" t="s">
         <v>75</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>